--- a/dataset/哈利波特/output/角色统计/哈利波特与混血王子 第21章 角色统计.xlsx
+++ b/dataset/哈利波特/output/角色统计/哈利波特与混血王子 第21章 角色统计.xlsx
@@ -476,7 +476,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
